--- a/employees.xlsx
+++ b/employees.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1983-08-29</t>
+          <t>1983-08-22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1108,6 +1108,42 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>24</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Kiekeboe</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>qmlskdfj</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
         <v>6</v>
       </c>
     </row>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1147,6 +1147,42 @@
         <v>6</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>25</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>stella</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Project manager</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ik ben stella</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2006-06-18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
